--- a/data/score_based_moefrags_data_binary.xlsx
+++ b/data/score_based_moefrags_data_binary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FBB8332C-1446-42F3-AEDE-F55CEF61D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{FBB8332C-1446-42F3-AEDE-F55CEF61D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6889034-6521-4B47-9E80-E5EFB6BCC489}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="25420" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_ghdata_moefrags_dat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -163,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,16 +1008,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1191,11 +1202,11 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" ref="AC2:AC53" si="1">IF(C2&gt;2, 1, 0)</f>
-        <v>1</v>
+        <f>IF(D2&gt;2, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1251,11 +1262,11 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S53" si="2">SUM(K3:R3)</f>
+        <f t="shared" ref="S3:S53" si="1">SUM(K3:R3)</f>
         <v>7</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T53" si="3">IF(OR(K3=S3,L3=S3,M3=S3,N3=S3,O3=S3,P3=S3,Q3=S3,R3=S3), 1, 0)</f>
+        <f t="shared" ref="T3:T53" si="2">IF(OR(K3=S3,L3=S3,M3=S3,N3=S3,O3=S3,P3=S3,Q3=S3,R3=S3), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U3">
@@ -1291,11 +1302,11 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC3:AC53" si="3">IF(D3&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1351,51 +1362,51 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1451,51 +1462,51 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1551,51 +1562,51 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1651,51 +1662,51 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1751,51 +1762,51 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1851,51 +1862,51 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1951,51 +1962,51 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2051,51 +2062,51 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2151,51 +2162,51 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2251,51 +2262,51 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2351,51 +2362,51 @@
         <v>1</v>
       </c>
       <c r="S14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2451,51 +2462,51 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2551,51 +2562,51 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2651,51 +2662,51 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2751,11 +2762,11 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U18">
@@ -2791,11 +2802,11 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2851,51 +2862,51 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2951,51 +2962,51 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3051,51 +3062,51 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -3151,51 +3162,51 @@
         <v>1</v>
       </c>
       <c r="S22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3251,51 +3262,51 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3351,51 +3362,51 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3451,51 +3462,51 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3551,51 +3562,51 @@
         <v>0</v>
       </c>
       <c r="S26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3651,51 +3662,51 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -3751,51 +3762,51 @@
         <v>0</v>
       </c>
       <c r="S28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3851,51 +3862,51 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3951,51 +3962,51 @@
         <v>0</v>
       </c>
       <c r="S30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4051,51 +4062,51 @@
         <v>0</v>
       </c>
       <c r="S31">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4151,51 +4162,51 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4251,51 +4262,51 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4351,51 +4362,51 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4451,51 +4462,51 @@
         <v>0</v>
       </c>
       <c r="S35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4551,51 +4562,51 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4651,51 +4662,51 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4751,51 +4762,51 @@
         <v>0</v>
       </c>
       <c r="S38">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -4851,51 +4862,51 @@
         <v>0</v>
       </c>
       <c r="S39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4951,51 +4962,51 @@
         <v>0</v>
       </c>
       <c r="S40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -5051,51 +5062,51 @@
         <v>0</v>
       </c>
       <c r="S41">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5151,51 +5162,51 @@
         <v>0</v>
       </c>
       <c r="S42">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U42">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5251,51 +5262,51 @@
         <v>0</v>
       </c>
       <c r="S43">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U43">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5351,51 +5362,51 @@
         <v>0</v>
       </c>
       <c r="S44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U44">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5451,51 +5462,51 @@
         <v>0</v>
       </c>
       <c r="S45">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U45">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5551,51 +5562,51 @@
         <v>0</v>
       </c>
       <c r="S46">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -5651,51 +5662,51 @@
         <v>0</v>
       </c>
       <c r="S47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -5751,51 +5762,51 @@
         <v>1</v>
       </c>
       <c r="S48">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U48">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -5851,11 +5862,11 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U49">
@@ -5891,11 +5902,11 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -5951,11 +5962,11 @@
         <v>0</v>
       </c>
       <c r="S50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U50">
@@ -5991,11 +6002,11 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -6051,11 +6062,11 @@
         <v>0</v>
       </c>
       <c r="S51">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U51">
@@ -6091,11 +6102,11 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -6151,11 +6162,11 @@
         <v>0</v>
       </c>
       <c r="S52">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U52">
@@ -6191,11 +6202,11 @@
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -6251,11 +6262,11 @@
         <v>0</v>
       </c>
       <c r="S53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U53">
@@ -6291,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/data/score_based_moefrags_data_binary.xlsx
+++ b/data/score_based_moefrags_data_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{FBB8332C-1446-42F3-AEDE-F55CEF61D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6889034-6521-4B47-9E80-E5EFB6BCC489}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{FBB8332C-1446-42F3-AEDE-F55CEF61D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F02CB37-3D6A-4006-A77A-C5EE4C1A9B3E}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="25420" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_ghdata_moefrags_dat" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
   <si>
     <t>Receptor</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>OPRM</t>
+  </si>
+  <si>
+    <t>s_score</t>
   </si>
 </sst>
 </file>
@@ -1009,15 +1012,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,88 +1028,91 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1114,40 +1120,40 @@
         <v>30</v>
       </c>
       <c r="C2">
+        <v>-0.18823500000000001</v>
+      </c>
+      <c r="D2">
         <v>170</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.85</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>14.777996999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.4728123</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8.9583931000000003</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.749083000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.0763645000000004</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>7.9048370999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1162,28 +1168,27 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUM(K2:R2)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>IF(OR(K2=S2,L2=S2,M2=S2,N2=S2,O2=S2,P2=S2,Q2=S2,R2=S2), 1, 0)</f>
-        <v>0</v>
+        <f>SUM(L2:S2)</f>
+        <v>7</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AB17" si="0">K2/$S2</f>
+        <f>IF(OR(L2=T2,M2=T2,N2=T2,O2=T2,P2=T2,Q2=T2,R2=T2,S2=T2), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:AC17" si="0">L2/$T2</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W2">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
@@ -1202,11 +1207,15 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>IF(D2&gt;2, 1, 0)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>IF(E2&gt;2, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1214,72 +1223,71 @@
         <v>31</v>
       </c>
       <c r="C3">
+        <v>-4.4963699999999998</v>
+      </c>
+      <c r="D3">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.02</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>17.045998000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.1645132</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11.312481999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10.601196</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.3994144999999998</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>8.8649368000000006</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S53" si="1">SUM(K3:R3)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T53" si="2">IF(OR(K3=S3,L3=S3,M3=S3,N3=S3,O3=S3,P3=S3,Q3=S3,R3=S3), 1, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="T3:T53" si="1">SUM(L3:S3)</f>
+        <v>7</v>
       </c>
       <c r="U3">
+        <f t="shared" ref="U3:U53" si="2">IF(OR(L3=T3,M3=T3,N3=T3,O3=T3,P3=T3,Q3=T3,R3=T3,S3=T3), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
@@ -1287,26 +1295,30 @@
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC53" si="3">IF(D3&gt;2, 1, 0)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD53" si="3">IF(E3&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1314,34 +1326,34 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>1.01</v>
+        <v>-0.224138</v>
       </c>
       <c r="D4">
         <v>1.01</v>
       </c>
       <c r="E4">
+        <v>1.01</v>
+      </c>
+      <c r="F4">
         <v>17.218178000000002</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.4178815</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.4414654000000002</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10.749083000000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.5635157</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7.8157972999999998</v>
       </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
       <c r="L4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1362,20 +1374,19 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
@@ -1402,11 +1413,15 @@
         <v>0</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1414,34 +1429,34 @@
         <v>33</v>
       </c>
       <c r="C5">
+        <v>-4.1394700000000002</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.38</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6.8858695000000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.1372836</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.8683982000000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.9874220000000005</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.1781515999999996</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7.9408025999999996</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1450,11 +1465,11 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>6</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1462,20 +1477,19 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
@@ -1487,12 +1501,12 @@
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AA5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1502,11 +1516,15 @@
         <v>0</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1514,37 +1532,37 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-0.33809499999999998</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>6.62</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15.960495</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.5101347000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.3628254000000002</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.0420493999999998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.9519479</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.7691536000000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1553,33 +1571,32 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
@@ -1591,22 +1608,26 @@
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1614,32 +1635,32 @@
         <v>31</v>
       </c>
       <c r="C7">
+        <v>-5.2334199999999997</v>
+      </c>
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.66</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12.564577999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.1551267999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6.3851465999999997</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.602169</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.1178055000000002</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.6137423999999996</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -1650,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1662,17 +1683,16 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="V7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1687,11 +1707,11 @@
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
@@ -1702,11 +1722,15 @@
         <v>0</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1714,34 +1738,34 @@
         <v>32</v>
       </c>
       <c r="C8">
+        <v>-0.108333</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.21</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>14.334533</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.65266376999999998</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7.6881456000000004</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7.7865976999999997</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5.1793035999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6.0932545999999999</v>
       </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
       <c r="L8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1762,20 +1786,19 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
@@ -1802,11 +1825,15 @@
         <v>0</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1814,32 +1841,32 @@
         <v>33</v>
       </c>
       <c r="C9">
+        <v>-6.20723</v>
+      </c>
+      <c r="D9">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.78</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.3081598000000003</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.51087475000000004</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.6165864000000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9.2363853000000002</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6.5673928000000004</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8.3624115000000003</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -1850,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1862,17 +1889,16 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="V9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1887,11 +1913,11 @@
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
@@ -1902,11 +1928,15 @@
         <v>0</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1914,80 +1944,79 @@
         <v>30</v>
       </c>
       <c r="C10">
+        <v>-1.31342</v>
+      </c>
+      <c r="D10">
         <v>498</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.04</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>11.500634</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.1901793000000001</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6.2673740000000002</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.0793809999999997</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.7707212000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5.3373112999999996</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W10">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
@@ -1995,18 +2024,22 @@
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2014,34 +2047,34 @@
         <v>31</v>
       </c>
       <c r="C11">
+        <v>-4.4901299999999997</v>
+      </c>
+      <c r="D11">
         <v>502</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>13.754384999999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.6345235</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.9744697000000002</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9.3874969000000004</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.4649595999999998</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.5810642000000001</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2050,32 +2083,31 @@
         <v>0</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>5</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
@@ -2087,26 +2119,30 @@
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="AA11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2114,41 +2150,41 @@
         <v>32</v>
       </c>
       <c r="C12">
+        <v>-0.72105300000000006</v>
+      </c>
+      <c r="D12">
         <v>186</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.92</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11.360661</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.11567102</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6.8001317999999999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8.9795073999999993</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.6345336000000001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6.2473387999999996</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -2162,29 +2198,28 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W12">
         <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Y12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2202,11 +2237,15 @@
         <v>0</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2214,32 +2253,32 @@
         <v>33</v>
       </c>
       <c r="C13">
+        <v>-5.9662699999999997</v>
+      </c>
+      <c r="D13">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.74</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.6438432000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.92898899000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.0367812999999999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.8750286000000003</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.7678758000000001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3.4752147</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
         <v>0</v>
       </c>
@@ -2250,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2262,17 +2301,16 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="V13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2287,11 +2325,11 @@
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
@@ -2302,11 +2340,15 @@
         <v>0</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2314,76 +2356,75 @@
         <v>30</v>
       </c>
       <c r="C14">
+        <v>-0.96666700000000005</v>
+      </c>
+      <c r="D14">
         <v>133</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.03</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10.075701</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.4098582</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6.3458437999999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6.0713796999999996</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.827318</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.0469474999999999</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
@@ -2391,22 +2432,26 @@
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AB14">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2414,99 +2459,102 @@
         <v>31</v>
       </c>
       <c r="C15">
+        <v>-4.2779400000000001</v>
+      </c>
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.64</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>9.9838027999999994</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.0507088</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.8425050000000001</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6.4480881999999999</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.0663735999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4.6973380999999996</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>2</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="V15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="AB15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2514,35 +2562,35 @@
         <v>32</v>
       </c>
       <c r="C16">
+        <v>-1.85216</v>
+      </c>
+      <c r="D16">
         <v>153</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>8.3158130999999997</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.1655952000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4.5306869000000001</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10.404747</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.5824028999999999</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.1660494999999997</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -2550,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2562,21 +2610,20 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="W16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2587,11 +2634,11 @@
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA16">
         <f t="shared" si="0"/>
@@ -2602,11 +2649,15 @@
         <v>0</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2614,32 +2665,32 @@
         <v>33</v>
       </c>
       <c r="C17">
+        <v>-4.0298100000000003</v>
+      </c>
+      <c r="D17">
         <v>-99999</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>9.5823765000000005</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.0489561999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4.0871668000000003</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>6.3207516999999998</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.8514081999999998</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4.8062924999999996</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
@@ -2650,29 +2701,28 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>6</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="V17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2687,26 +2737,30 @@
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2714,40 +2768,40 @@
         <v>30</v>
       </c>
       <c r="C18">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="D18">
         <v>567</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>7.9078030999999998</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.0460780000000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.1501207000000004</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8.6265497</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.5762092000000001</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4.5448332000000002</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2762,28 +2816,27 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18">
-        <f t="shared" ref="U18:AB49" si="4">K18/$S18</f>
+      <c r="V18">
+        <f t="shared" ref="V18:AC49" si="4">L18/$T18</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V18">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W18">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y18">
         <f t="shared" si="4"/>
@@ -2802,11 +2855,15 @@
         <v>0</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2814,32 +2871,32 @@
         <v>31</v>
       </c>
       <c r="C19">
+        <v>-4.7727700000000004</v>
+      </c>
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3.74</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>9.3273610999999992</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.68127727999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.6204239999999999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8.6702756999999995</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.8813845</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3.5036003999999998</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2850,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2862,17 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2887,11 +2943,11 @@
       </c>
       <c r="Y19">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <f t="shared" si="4"/>
@@ -2902,11 +2958,15 @@
         <v>0</v>
       </c>
       <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2914,34 +2974,34 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>-0.105263</v>
       </c>
       <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>2.54</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7.4049953999999998</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.1825762</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3.7679513</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.2109952000000002</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.5302311</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3.2058233999999999</v>
       </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
       <c r="L20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2962,20 +3022,19 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <f t="shared" si="4"/>
@@ -3002,11 +3061,15 @@
         <v>0</v>
       </c>
       <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3014,32 +3077,32 @@
         <v>33</v>
       </c>
       <c r="C21">
+        <v>-5.3108300000000002</v>
+      </c>
+      <c r="D21">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4.45</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4.3366752000000002</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.59553294999999995</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.3963678000000002</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3.4840357000000002</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.2957857000000002</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.9344937999999998</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -3050,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3062,17 +3125,16 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V21">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3087,11 +3149,11 @@
       </c>
       <c r="Y21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <f t="shared" si="4"/>
@@ -3102,11 +3164,15 @@
         <v>0</v>
       </c>
       <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -3114,84 +3180,83 @@
         <v>30</v>
       </c>
       <c r="C22">
+        <v>-0.99523799999999996</v>
+      </c>
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10.59</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>17.837337000000002</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2.7120407000000002</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>8.7329845000000006</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.064498</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4.0576905999999999</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6.9008060000000002</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W22">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y22">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
@@ -3199,14 +3264,18 @@
       </c>
       <c r="AB22">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3214,32 +3283,32 @@
         <v>31</v>
       </c>
       <c r="C23">
+        <v>-4.7031499999999999</v>
+      </c>
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>14.832417</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.9571419999999999</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>8.9760922999999995</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9.3543471999999994</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4.0576905999999999</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6.7134852</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
@@ -3250,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3262,17 +3331,16 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V23">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3287,11 +3355,11 @@
       </c>
       <c r="Y23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <f t="shared" si="4"/>
@@ -3302,11 +3370,15 @@
         <v>0</v>
       </c>
       <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3314,80 +3386,79 @@
         <v>32</v>
       </c>
       <c r="C24">
+        <v>-1.7083900000000001</v>
+      </c>
+      <c r="D24">
         <v>59</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.57</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>16.650760999999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.166077</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.8771757999999998</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9.3597488000000002</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>6.8909693000000001</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>7.9670820000000004</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>2</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W24">
         <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y24">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <f t="shared" si="4"/>
@@ -3395,18 +3466,22 @@
       </c>
       <c r="AA24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3414,32 +3489,32 @@
         <v>33</v>
       </c>
       <c r="C25">
+        <v>-5.1332100000000001</v>
+      </c>
+      <c r="D25">
         <v>-99999</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>3.5821752999999998</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.63754683999999995</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.8116418999999999</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9.7632265</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>7.7819943</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>8.9769267999999993</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
@@ -3450,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3462,17 +3537,16 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3487,11 +3561,11 @@
       </c>
       <c r="Y25">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <f t="shared" si="4"/>
@@ -3502,11 +3576,15 @@
         <v>0</v>
       </c>
       <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3514,37 +3592,37 @@
         <v>30</v>
       </c>
       <c r="C26">
+        <v>-0.45</v>
+      </c>
+      <c r="D26">
         <v>567</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>6.3716473999999996</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.1668242</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.8200796000000001</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7.8244381000000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5.3252153</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6.4776224999999998</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3553,33 +3631,32 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X26">
         <f t="shared" si="4"/>
@@ -3591,22 +3668,26 @@
       </c>
       <c r="Z26">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3614,32 +3695,32 @@
         <v>31</v>
       </c>
       <c r="C27">
+        <v>-3.9562200000000001</v>
+      </c>
+      <c r="D27">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.66</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>12.157954999999999</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.93415672000000005</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7.589664</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.4751987</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4.9227901000000003</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6.4836863999999998</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
@@ -3650,29 +3731,28 @@
         <v>0</v>
       </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>6</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3687,26 +3767,30 @@
       </c>
       <c r="Y27">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA27">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AC27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -3714,72 +3798,71 @@
         <v>32</v>
       </c>
       <c r="C28">
+        <v>-1.6064000000000001</v>
+      </c>
+      <c r="D28">
         <v>563</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.01</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11.866706000000001</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.1679881000000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>7.4726090000000003</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8.2246541999999998</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5.3701162</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6.6177396999999996</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X28">
         <f t="shared" si="4"/>
@@ -3787,7 +3870,7 @@
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <f t="shared" si="4"/>
@@ -3795,18 +3878,22 @@
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3814,32 +3901,32 @@
         <v>33</v>
       </c>
       <c r="C29">
+        <v>-4.2609300000000001</v>
+      </c>
+      <c r="D29">
         <v>24</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.93</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>12.780951999999999</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.5277921999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6.5867801000000004</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6.6282867999999997</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.6312828000000001</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5.7746209999999998</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
         <v>0</v>
       </c>
@@ -3850,29 +3937,28 @@
         <v>0</v>
       </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>3</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3887,26 +3973,30 @@
       </c>
       <c r="Y29">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA29">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AB29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3914,76 +4004,75 @@
         <v>30</v>
       </c>
       <c r="C30">
+        <v>-0.69166700000000003</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.06</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>16.527850999999998</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.1651175</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>8.9102067999999992</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>9.0921792999999997</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.4673227999999998</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>6.5070853</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W30">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y30">
         <f t="shared" si="4"/>
@@ -3991,22 +4080,26 @@
       </c>
       <c r="Z30">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AA30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AB30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4014,72 +4107,71 @@
         <v>31</v>
       </c>
       <c r="C31">
+        <v>-4.75101</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.75</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>10.048432999999999</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.70240599000000004</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6.1978273000000002</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>9.1159610999999998</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5.8341041000000002</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>7.0303326000000004</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="V31">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="W31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X31">
         <f t="shared" si="4"/>
@@ -4087,26 +4179,30 @@
       </c>
       <c r="Y31">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="AA31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4114,46 +4210,46 @@
         <v>32</v>
       </c>
       <c r="C32">
+        <v>-2.9034499999999999</v>
+      </c>
+      <c r="D32">
         <v>16</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.06</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15.070384000000001</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.5312703999999999</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>8.3672552000000007</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>8.7211590000000001</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3.4673227999999998</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6.9742999000000001</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -4162,36 +4258,35 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="W32">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y32">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA32">
         <f t="shared" si="4"/>
@@ -4202,11 +4297,15 @@
         <v>0</v>
       </c>
       <c r="AC32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4214,32 +4313,32 @@
         <v>33</v>
       </c>
       <c r="C33">
+        <v>-4.72783</v>
+      </c>
+      <c r="D33">
         <v>19</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.43</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5.8434423999999998</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.56070399000000004</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3.9136175999999998</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9.5140934000000001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6.4035630000000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7.9552765000000001</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
@@ -4250,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4262,17 +4361,16 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V33">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4287,11 +4385,11 @@
       </c>
       <c r="Y33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <f t="shared" si="4"/>
@@ -4302,11 +4400,15 @@
         <v>0</v>
       </c>
       <c r="AC33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4314,84 +4416,83 @@
         <v>30</v>
       </c>
       <c r="C34">
+        <v>-1.38636</v>
+      </c>
+      <c r="D34">
         <v>27</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.19</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>10.081008000000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>9.1954507000000005E-2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5.3296332</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>9.5138502000000003</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.6983022999999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7.4320330999999999</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>4</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V34">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z34">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <f t="shared" si="4"/>
@@ -4399,14 +4500,18 @@
       </c>
       <c r="AB34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AC34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4414,99 +4519,102 @@
         <v>31</v>
       </c>
       <c r="C35">
+        <v>-0.97499999999999998</v>
+      </c>
+      <c r="D35">
         <v>29</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.48</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>15.705109</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.15925643</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>6.8711618999999997</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>9.2825623000000004</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.6983022999999999</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5.2841978000000003</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>4</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V35">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z35">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4514,34 +4622,34 @@
         <v>32</v>
       </c>
       <c r="C36">
+        <v>-0.1</v>
+      </c>
+      <c r="D36">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4.03</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>11.204031000000001</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.14243130000000001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6.1032710000000003</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7.7574310000000004</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.4160341999999999</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5.5475124999999998</v>
       </c>
-      <c r="K36">
-        <v>7</v>
-      </c>
       <c r="L36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4562,20 +4670,19 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <f t="shared" si="4"/>
@@ -4602,11 +4709,15 @@
         <v>0</v>
       </c>
       <c r="AC36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4614,32 +4725,32 @@
         <v>33</v>
       </c>
       <c r="C37">
+        <v>-2.26207</v>
+      </c>
+      <c r="D37">
         <v>-99999</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>16.800999000000001</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.78623027000000001</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>9.7812634000000003</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>10.245285000000001</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>6.1614728000000003</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>8.2734384999999993</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -4650,29 +4761,28 @@
         <v>0</v>
       </c>
       <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>2</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>5</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V37">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4687,26 +4797,30 @@
       </c>
       <c r="Y37">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="Z37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA37">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="AB37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4714,35 +4828,35 @@
         <v>30</v>
       </c>
       <c r="C38">
+        <v>-0.122222</v>
+      </c>
+      <c r="D38">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>3.99</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>12.773146000000001</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.0822611</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>7.4644045999999999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>9.0111436999999999</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3.9042709000000002</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>6.1012344000000001</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>6</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
@@ -4753,30 +4867,29 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="W38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4791,22 +4904,26 @@
       </c>
       <c r="Z38">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -4814,47 +4931,47 @@
         <v>31</v>
       </c>
       <c r="C39">
+        <v>-2.12778</v>
+      </c>
+      <c r="D39">
         <v>561</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.96</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>15.359131</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.3907092000000001</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>7.6025276000000002</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>9.7346087000000008</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>5.0179337999999998</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>7.1698092999999998</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>2</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>2</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>3</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
@@ -4862,37 +4979,36 @@
         <v>0</v>
       </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="W39">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y39">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA39">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4902,11 +5018,15 @@
         <v>0</v>
       </c>
       <c r="AC39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4914,76 +5034,75 @@
         <v>32</v>
       </c>
       <c r="C40">
+        <v>-1.4777800000000001</v>
+      </c>
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4.99</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>15.036624</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1.1693492000000001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>8.0140838999999993</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>8.9300785000000005</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3.1334168999999998</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>5.8112472999999998</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>4</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W40">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y40">
         <f t="shared" si="4"/>
@@ -4991,22 +5110,26 @@
       </c>
       <c r="Z40">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -5014,32 +5137,32 @@
         <v>33</v>
       </c>
       <c r="C41">
+        <v>-6.9409700000000001</v>
+      </c>
+      <c r="D41">
         <v>-99999</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>9.5245247000000006</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.65968722000000002</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>4.8972688</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>9.7710332999999991</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>7.7819437999999996</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>8.9978780999999994</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -5050,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5062,17 +5185,16 @@
         <v>0</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V41">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5087,11 +5209,11 @@
       </c>
       <c r="Y41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
         <f t="shared" si="4"/>
@@ -5102,11 +5224,15 @@
         <v>0</v>
       </c>
       <c r="AC41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5114,46 +5240,46 @@
         <v>30</v>
       </c>
       <c r="C42">
+        <v>-1.81549</v>
+      </c>
+      <c r="D42">
         <v>529</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1.0756143667296785</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>9.4315251999999994</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.75621163999999996</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>4.4819326000000004</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.8259100999999998</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4.9590192000000002</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>6.0777998000000002</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -5162,36 +5288,35 @@
         <v>0</v>
       </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W42">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y42">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA42">
         <f t="shared" si="4"/>
@@ -5202,11 +5327,15 @@
         <v>0</v>
       </c>
       <c r="AC42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5214,72 +5343,71 @@
         <v>31</v>
       </c>
       <c r="C43">
+        <v>-4.3353000000000002</v>
+      </c>
+      <c r="D43">
         <v>193</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.058323369204198</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>11.451571</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.1672163</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>6.1839066000000003</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>7.3901858000000002</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4.7553058000000004</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5.8689752000000004</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W43">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X43">
         <f t="shared" si="4"/>
@@ -5287,26 +5415,30 @@
       </c>
       <c r="Y43">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z43">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="AA43">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5314,41 +5446,41 @@
         <v>32</v>
       </c>
       <c r="C44">
+        <v>-0.34210499999999999</v>
+      </c>
+      <c r="D44">
         <v>36</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.2158119658119657</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>5.4791378999999996</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1.3398620000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.7455769000000001</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>7.8259100999999998</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>3.61043</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>5.5548767999999997</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>2</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>0</v>
       </c>
@@ -5362,29 +5494,28 @@
         <v>0</v>
       </c>
       <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V44">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W44">
         <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y44">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5402,11 +5533,15 @@
         <v>0</v>
       </c>
       <c r="AC44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5414,34 +5549,34 @@
         <v>33</v>
       </c>
       <c r="C45">
+        <v>-5.2724399999999996</v>
+      </c>
+      <c r="D45">
         <v>39</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.37409598948060485</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>13.652856999999999</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.5954263</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>7.4811964</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>8.0913457999999991</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>4.9441189999999997</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>6.4539795</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5450,32 +5585,31 @@
         <v>0</v>
       </c>
       <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>3</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U45">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="V45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W45">
         <f t="shared" si="4"/>
@@ -5487,26 +5621,30 @@
       </c>
       <c r="Y45">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA45">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AB45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AC45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5514,46 +5652,46 @@
         <v>30</v>
       </c>
       <c r="C46">
+        <v>-0.93571400000000005</v>
+      </c>
+      <c r="D46">
         <v>34</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2.9884453781512605</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>11.605651999999999</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1.1183616999999999</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>5.2936968999999996</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>9.3384333000000002</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5.8081149999999999</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>7.9662389999999998</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -5562,36 +5700,35 @@
         <v>0</v>
       </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W46">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y46">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA46">
         <f t="shared" si="4"/>
@@ -5602,11 +5739,15 @@
         <v>0</v>
       </c>
       <c r="AC46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -5614,47 +5755,47 @@
         <v>31</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>-5.3575900000000001</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>10.160714285714286</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>13.145735</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1.3052363</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>8.7116279999999993</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>9.1865635000000001</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>4.0604091000000002</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>7.3372054000000002</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>6</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
@@ -5662,37 +5803,36 @@
         <v>0</v>
       </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="V47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W47">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y47">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA47">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5702,11 +5842,15 @@
         <v>0</v>
       </c>
       <c r="AC47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD47">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -5714,80 +5858,79 @@
         <v>32</v>
       </c>
       <c r="C48">
+        <v>-1.6170599999999999</v>
+      </c>
+      <c r="D48">
         <v>424</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.2940532345013478</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>16.991033999999999</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1.8162537999999999</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>9.4123955000000006</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>9.7464894999999991</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>4.8855443000000003</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>7.9757457</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>3</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="W48">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y48">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <f t="shared" si="4"/>
@@ -5795,18 +5938,22 @@
       </c>
       <c r="AA48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB48">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AC48">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AD48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -5814,34 +5961,34 @@
         <v>33</v>
       </c>
       <c r="C49">
+        <v>-6.5204000000000004</v>
+      </c>
+      <c r="D49">
         <v>12</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.84672619047619047</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>6.0151462999999996</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.56696557999999997</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>2.9937885</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>9.1865635000000001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6.9080129000000001</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>7.8282126999999999</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5850,11 +5997,11 @@
         <v>0</v>
       </c>
       <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>6</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -5862,20 +6009,19 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="V49">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W49">
         <f t="shared" si="4"/>
@@ -5887,26 +6033,30 @@
       </c>
       <c r="Y49">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f t="shared" ref="AB49:AB53" si="5">R49/$S49</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC49">
+        <f t="shared" ref="AC49:AC53" si="5">S49/$T49</f>
+        <v>0</v>
+      </c>
+      <c r="AD49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -5914,68 +6064,67 @@
         <v>30</v>
       </c>
       <c r="C50">
+        <v>-0.62857099999999999</v>
+      </c>
+      <c r="D50">
         <v>554</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.0270758122743684</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>6.2632307999999997</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.77097987999999995</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>4.0917931000000003</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5.4519371999999997</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2.4798608</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>3.8557076000000001</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50">
-        <f t="shared" ref="U50:AA53" si="6">K50/$S50</f>
+      <c r="V50">
+        <f t="shared" ref="V50:AB53" si="6">L50/$T50</f>
         <v>0.5714285714285714</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
       </c>
       <c r="W50">
         <f t="shared" si="6"/>
@@ -5983,7 +6132,7 @@
       </c>
       <c r="X50">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y50">
         <f t="shared" si="6"/>
@@ -5991,22 +6140,26 @@
       </c>
       <c r="Z50">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -6014,47 +6167,47 @@
         <v>31</v>
       </c>
       <c r="C51">
+        <v>-5.4041800000000002</v>
+      </c>
+      <c r="D51">
         <v>79</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.54358729400525441</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>11.773111</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.55587226000000001</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>4.7066236000000004</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>7.2324171000000002</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>3.5477997999999999</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>4.5780721</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>5</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
         <v>0</v>
       </c>
@@ -6062,16 +6215,15 @@
         <v>0</v>
       </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
       </c>
       <c r="V51">
         <f t="shared" si="6"/>
@@ -6079,7 +6231,7 @@
       </c>
       <c r="W51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X51">
         <f t="shared" si="6"/>
@@ -6087,26 +6239,30 @@
       </c>
       <c r="Y51">
         <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="Z51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -6114,40 +6270,40 @@
         <v>32</v>
       </c>
       <c r="C52">
+        <v>-0.50434800000000002</v>
+      </c>
+      <c r="D52">
         <v>544</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.0262208657047724</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>7.5264053000000004</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1.1091302999999999</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>4.4118433000000001</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5.4519371999999997</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2.7437242999999998</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>4.1624064000000001</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>5</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -6162,28 +6318,27 @@
         <v>0</v>
       </c>
       <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <f t="shared" si="6"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V52">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W52">
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X52">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y52">
         <f t="shared" si="6"/>
@@ -6198,15 +6353,19 @@
         <v>0</v>
       </c>
       <c r="AB52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -6214,32 +6373,32 @@
         <v>33</v>
       </c>
       <c r="C53">
+        <v>-3.7593399999999999</v>
+      </c>
+      <c r="D53">
         <v>-99999</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>11.185822</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.51705027000000003</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>6.9214067000000004</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>7.7132753999999997</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>3.6711664000000002</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>5.6395140000000001</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
         <v>0</v>
       </c>
@@ -6250,27 +6409,26 @@
         <v>0</v>
       </c>
       <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>3</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>4</v>
       </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
       <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V53">
@@ -6287,21 +6445,25 @@
       </c>
       <c r="Y53">
         <f t="shared" si="6"/>
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AA53">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/data/score_based_moefrags_data_binary.xlsx
+++ b/data/score_based_moefrags_data_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{FBB8332C-1446-42F3-AEDE-F55CEF61D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F02CB37-3D6A-4006-A77A-C5EE4C1A9B3E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{FBB8332C-1446-42F3-AEDE-F55CEF61D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDE5CEC6-90D6-487E-AC81-3CFDA46B8CDB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="25420" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_ghdata_moefrags_dat" sheetId="1" r:id="rId1"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S2" sqref="E2:S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
